--- a/biology/Botanique/Grimpe_d'arbres/Grimpe_d'arbres.xlsx
+++ b/biology/Botanique/Grimpe_d'arbres/Grimpe_d'arbres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grimpe_d%27arbres</t>
+          <t>Grimpe_d'arbres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grimpe d'arbres, ou grimpe encadrée dans les arbres, est le terme générique définissant l'activité physique et éducative de pleine nature qui consiste à grimper aux arbres à l'aide des branches, avec ou sans sécurité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grimpe_d%27arbres</t>
+          <t>Grimpe_d'arbres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grimpe d'arbres est une des plus anciennes capacités des hominidés, utile pour s'abriter des prédateurs ou se nourrir. L'humain moderne a perdu une partie de ses capacités physiques lui permettant d'évoluer facilement dans les arbres mais pour autant l'envie persiste dans le réflexe ludique des enfants qui y trouvent là un jeu attractif sans se rendre compte du danger.
 Vers la fin des années 1970, Peter Jenkins, arboriste professionnel, se voit demander par quelques-uns de ses clients de les former aux techniques de grimpe en arbre qu'il utilise pour ses travaux d'élagage. Après quelques formations qui lui permettent d'adapter les techniques aux besoins d'une pratique de loisirs il décide de créer la première école du genre. Il fonde alors à Atlanta en 1983 Tree Climbers International. Il est considéré comme le père de la discipline et continue de l'enseigner et de la populariser.
-En 1989, à Annonay, en Ardèche, quelques amis, passionnés du milieu arboré, ont l’idée de faire découvrir les arbres par la grimpe. Ils se surnomment alors les Accro-Branchés[1] et sont les premiers en France à développer commercialement une telle activité qu'ils nomment alors « l'Accrobranche » . Certains sont arboristes, d’autres animateurs nature, travailleurs sociaux ou artistes amoureux de la nature. Forts de cette passion commune, ils mettent au point les premières techniques qui permettent au public de grimper avec une sécurité acceptable.
+En 1989, à Annonay, en Ardèche, quelques amis, passionnés du milieu arboré, ont l’idée de faire découvrir les arbres par la grimpe. Ils se surnomment alors les Accro-Branchés et sont les premiers en France à développer commercialement une telle activité qu'ils nomment alors « l'Accrobranche » . Certains sont arboristes, d’autres animateurs nature, travailleurs sociaux ou artistes amoureux de la nature. Forts de cette passion commune, ils mettent au point les premières techniques qui permettent au public de grimper avec une sécurité acceptable.
 En 2000, le Syndicat National des Professionnels de l'Accrobranche (SNPA) est créé à la demande d'Alain Mouchel, alors conseiller technique de Marie-Georges Buffet ministre de la jeunesse et des sports, afin de travailler à la réglementation des activités de Grimpe dans les arbres.
 En 2003, le Syndicat National des Grimpeurs Encadrant dans les Arbres (SNGEA) succède au SNPA afin de fédérer tous les acteurs de la pratique sans la limiter à la marque déposée qu'est l'Accrobranche. Le terme : « Grimpe Encadrée dans les Arbres » devient alors la dénomination de l'activité. Le SNGEA a pour objectif principal de défendre dans leur ensemble et individuellement, les intérêts moraux et matériels des Grimpeurs Encadrants dans les Arbres qui exercent en France.
-À la rencontre d’automne 2005 du SNGEA, le terme « Grimpe d’arbre »[2] est adopté comme nouveau terme générique englobant deux approches : la grimpe libre et la grimpe encadrée à la suite de la proposition de deux Français au retour de leur participation au 4e rendez-vous en Oregon, rencontre internationale annuelle en partie organisée par TCI, traduisant simplement la dénomination américaine de l'activité : le tree climbing. Formés aux normes d'enseignement de TCI par Peter Jenkins, ils fondent la même année Tree Climbers France (TCF).
+À la rencontre d’automne 2005 du SNGEA, le terme « Grimpe d’arbre » est adopté comme nouveau terme générique englobant deux approches : la grimpe libre et la grimpe encadrée à la suite de la proposition de deux Français au retour de leur participation au 4e rendez-vous en Oregon, rencontre internationale annuelle en partie organisée par TCI, traduisant simplement la dénomination américaine de l'activité : le tree climbing. Formés aux normes d'enseignement de TCI par Peter Jenkins, ils fondent la même année Tree Climbers France (TCF).
 Par la suite, de nombreuses structures proposent des activités encadrées sous le terme générique de grimpe d'arbres et les techniques sont constamment améliorées dans un souci de sécurité pour le public et de respect de l’arbre.
 En 2007, une Fédération de Grimpe d'Arbres et Activités Associées (FGA-AA) voit le jour après plusieurs essais infructueux de fédérer des clubs de grimpe d'arbres autour d'un projet commun. Celle-ci s'attache à fédérer, promouvoir, développer et informer sur la pratique sportive de la grimpe d'arbres.
 En 2017, l’UNGAAP (union nationale de la grimpe d’arbre et activités perchées) arrive dans le monde de la grimpe d’arbre, créée par Wengert Olivier, également fondateur de la première association de grimpe d'arbre loisir "LAGDLA Développement"
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grimpe_d%27arbres</t>
+          <t>Grimpe_d'arbres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La grimpe d'arbres est devenu le terme générique de la discipline pour pallier la multiplication des dénominations généré par le dépôt comme marque déposée de l'Accrobranche. Les écoles et clubs ne pouvant se servir de cette appellation sans être membres du réseau des Accro-Branchés ceux qui n'en faisaient pas partie durent donc inventer d'autres appellations :
 Arbo-Escalade ;
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grimpe_d%27arbres</t>
+          <t>Grimpe_d'arbres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,10 +616,12 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les animations de grimpe d'arbres sont encadrées par des professionnels qualifiés : les Éducateur Grimpe d'Arbres (EGA) titulaires d'un Certificat de Qualification Professionnel. Ils sont soumis à la législation sur l'encadrement des activités physiques ou sportives, au code de déontologie des grimpeurs encadrant dans les arbres et aux normes européennes en vigueur pour le matériel.
-L'activité de grimpe d'arbres n'utilise pas de câbles mais des cordes d'assurance qui sont récupérées à la fin. Des mesures sont également prises pour limiter l'impact sur l'environnement[3].
+L'activité de grimpe d'arbres n'utilise pas de câbles mais des cordes d'assurance qui sont récupérées à la fin. Des mesures sont également prises pour limiter l'impact sur l'environnement.
 </t>
         </is>
       </c>
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grimpe_d%27arbres</t>
+          <t>Grimpe_d'arbres</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,7 +650,9 @@
           <t>Pratique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue deux pratiques, la grimpe encadrée et la grimpe libre.
 La grimpe d'arbres encadrée s'adresse à tous les personnes dès 7 ans, sans limite d'âge ou de handicap. Les participants grimpent par petits groupes de 8 personnes au maximum pour un EGA dans le cadre d'une animation ou, bien que cela ne soit pas une limite officielle, par groupe de 4 personnes dans le cadre d'une formation à l'autonomie. Munis d'un équipement de sécurité (baudriers, casques, mousquetons, rappel, longes…), le participant peut grimper seul en s'auto-assurant avec la technique de la liane (grimper à la corde ainsi nommée dans certaines écoles).
@@ -657,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grimpe_d%27arbres</t>
+          <t>Grimpe_d'arbres</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +695,9 @@
           <t>Cotations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Disponible sur l’application CLEEB®, les cotifications sont, depuis 2022, un sujet très intéressant : classifier les arbres pour que chacun, indépendamment avec son niveau, puisse avoir du plaisir est une idée affable et altruiste.  
 On y retrouvera les couleurs suivantes, qui correspondent à des difficultés :   
@@ -697,7 +719,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grimpe_d%27arbres</t>
+          <t>Grimpe_d'arbres</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,7 +737,9 @@
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La grimpe d'arbres s'accompagne d'une réflexion écologique respectueuse de l'environnement naturel. Les pratiquants anglophones ont mis en valeur un leitmotiv qui reflète ce respect : « Do no harm, leave no trace » que l'on peut traduire par « n’abîme pas, ne laisse aucune trace » et qui insiste donc sur l'importance de ne pas endommager l'arbre au point de ne laisser absolument aucune trace de son passage. Cette philosophie écoresponsable est développée plus en détail par le biais de chartes du grimpeur responsable mises en avant par les différents acteurs de l'activité.
 Bien qu'appréciant aussi les sensations fortes procurées par cette discipline, les grimpeurs sont motivés à connaître les différentes espèces d'arbre et les biotopes qu'ils accueillent. C'est une nécessité sécuritaire car beaucoup d'essences, de parasites et d'animaux peuvent induire des dangers majeurs, mais c'est aussi un attrait intellectuel que d'apprendre à les connaître. Attrait qui est un des ferments de la passion qui motive les grimpeurs et les pousse à développer leur savoir en matière de biologie et plus particulièrement de dendrologie.
